--- a/doc/booth_armstrong_revised.xlsx
+++ b/doc/booth_armstrong_revised.xlsx
@@ -20,7 +20,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="246">
+  <si>
+    <t xml:space="preserve">Occupation</t>
+  </si>
   <si>
     <t xml:space="preserve">Agriculture/ fishing </t>
   </si>
@@ -852,16 +855,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C247"/>
+  <dimension ref="A1:D248"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A227" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A221" activeCellId="0" sqref="A221"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="10.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="33.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="10.61"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -875,22 +878,22 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0" t="s">
+      <c r="C3" s="0" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="0" t="s">
+      <c r="C4" s="0" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="C5" s="0" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="B6" s="0" t="s">
         <v>5</v>
       </c>
     </row>
@@ -900,17 +903,17 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="0" t="s">
+      <c r="C8" s="0" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="0" t="s">
+      <c r="C9" s="0" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="C10" s="0" t="s">
         <v>9</v>
       </c>
     </row>
@@ -920,62 +923,62 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="0" t="s">
+      <c r="C12" s="0" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="0" t="s">
+      <c r="C13" s="0" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="0" t="s">
+      <c r="C14" s="0" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="0" t="s">
+      <c r="C15" s="0" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="0" t="s">
+      <c r="C16" s="0" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="0" t="s">
+      <c r="C17" s="0" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="0" t="s">
+      <c r="C18" s="0" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="0" t="s">
+      <c r="C19" s="0" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="0" t="s">
+      <c r="C20" s="0" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="0" t="s">
+      <c r="C21" s="0" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="0" t="s">
+      <c r="C22" s="0" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="0" t="s">
+      <c r="C23" s="0" t="s">
         <v>22</v>
       </c>
     </row>
@@ -985,672 +988,672 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="0" t="s">
+      <c r="D25" s="0" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="0" t="s">
+      <c r="D26" s="0" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="0" t="s">
+      <c r="D27" s="0" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="0" t="s">
+      <c r="D28" s="0" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C29" s="0" t="s">
+      <c r="D29" s="0" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C30" s="0" t="s">
+      <c r="D30" s="0" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C31" s="0" t="s">
+      <c r="D31" s="0" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C32" s="0" t="s">
+      <c r="D32" s="0" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C33" s="0" t="s">
+      <c r="D33" s="0" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C34" s="0" t="s">
+      <c r="D34" s="0" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C35" s="0" t="s">
+      <c r="D35" s="0" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C36" s="0" t="s">
+      <c r="D36" s="0" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C37" s="0" t="s">
+      <c r="D37" s="0" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C38" s="0" t="s">
+      <c r="D38" s="0" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C39" s="0" t="s">
+      <c r="D39" s="0" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C40" s="0" t="s">
+      <c r="D40" s="0" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C41" s="0" t="s">
+      <c r="D41" s="0" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C42" s="0" t="s">
+      <c r="D42" s="0" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C43" s="0" t="s">
+      <c r="D43" s="0" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C44" s="0" t="s">
+      <c r="D44" s="0" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C45" s="0" t="s">
+      <c r="D45" s="0" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C46" s="0" t="s">
+      <c r="D46" s="0" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C47" s="0" t="s">
+      <c r="D47" s="0" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C48" s="0" t="s">
+      <c r="D48" s="0" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C49" s="0" t="s">
+      <c r="D49" s="0" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C50" s="0" t="s">
+      <c r="D50" s="0" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C51" s="0" t="s">
+      <c r="D51" s="0" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C52" s="0" t="s">
+      <c r="D52" s="0" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C53" s="0" t="s">
+      <c r="D53" s="0" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C54" s="0" t="s">
+      <c r="D54" s="0" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C55" s="0" t="s">
+      <c r="D55" s="0" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C56" s="0" t="s">
+      <c r="D56" s="0" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C57" s="0" t="s">
+      <c r="D57" s="0" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C58" s="0" t="s">
+      <c r="D58" s="0" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C59" s="0" t="s">
+      <c r="D59" s="0" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C60" s="0" t="s">
+      <c r="D60" s="0" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C61" s="0" t="s">
+      <c r="D61" s="0" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C62" s="0" t="s">
+      <c r="D62" s="0" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C63" s="0" t="s">
+      <c r="D63" s="0" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C64" s="0" t="s">
+      <c r="D64" s="0" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C65" s="0" t="s">
+      <c r="D65" s="0" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C66" s="0" t="s">
+      <c r="D66" s="0" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C67" s="0" t="s">
+      <c r="D67" s="0" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C68" s="0" t="s">
+      <c r="D68" s="0" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C69" s="0" t="s">
+      <c r="D69" s="0" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C70" s="0" t="s">
+      <c r="D70" s="0" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C71" s="0" t="s">
+      <c r="D71" s="0" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C72" s="0" t="s">
+      <c r="D72" s="0" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C73" s="0" t="s">
+      <c r="D73" s="0" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C74" s="0" t="s">
+      <c r="D74" s="0" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C75" s="0" t="s">
+      <c r="D75" s="0" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C76" s="0" t="s">
+      <c r="D76" s="0" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C77" s="0" t="s">
+      <c r="D77" s="0" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C78" s="0" t="s">
+      <c r="D78" s="0" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C79" s="0" t="s">
+      <c r="D79" s="0" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C80" s="0" t="s">
+      <c r="D80" s="0" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C81" s="0" t="s">
+      <c r="D81" s="0" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C82" s="0" t="s">
+      <c r="D82" s="0" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C83" s="0" t="s">
+      <c r="D83" s="0" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C84" s="0" t="s">
+      <c r="D84" s="0" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C85" s="0" t="s">
+      <c r="D85" s="0" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C86" s="0" t="s">
+      <c r="D86" s="0" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C87" s="0" t="s">
+      <c r="D87" s="0" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C88" s="0" t="s">
+      <c r="D88" s="0" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C89" s="0" t="s">
+      <c r="D89" s="0" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C90" s="0" t="s">
+      <c r="D90" s="0" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C91" s="0" t="s">
+      <c r="D91" s="0" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C92" s="0" t="s">
+      <c r="D92" s="0" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C93" s="0" t="s">
+      <c r="D93" s="0" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C94" s="0" t="s">
+      <c r="D94" s="0" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C95" s="0" t="s">
+      <c r="D95" s="0" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C96" s="0" t="s">
+      <c r="D96" s="0" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C97" s="0" t="s">
+      <c r="D97" s="0" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C98" s="0" t="s">
+      <c r="D98" s="0" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C99" s="0" t="s">
+      <c r="D99" s="0" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C100" s="0" t="s">
+      <c r="D100" s="0" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C101" s="0" t="s">
+      <c r="D101" s="0" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C102" s="0" t="s">
+      <c r="D102" s="0" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C103" s="0" t="s">
+      <c r="D103" s="0" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C104" s="0" t="s">
+      <c r="D104" s="0" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C105" s="0" t="s">
+      <c r="D105" s="0" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C106" s="0" t="s">
+      <c r="D106" s="0" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C107" s="0" t="s">
+      <c r="D107" s="0" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C108" s="0" t="s">
+      <c r="D108" s="0" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C109" s="0" t="s">
+      <c r="D109" s="0" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C110" s="0" t="s">
+      <c r="D110" s="0" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C111" s="0" t="s">
+      <c r="D111" s="0" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C112" s="0" t="s">
+      <c r="D112" s="0" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C113" s="0" t="s">
+      <c r="D113" s="0" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C114" s="0" t="s">
+      <c r="D114" s="0" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C115" s="0" t="s">
+      <c r="D115" s="0" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C116" s="0" t="s">
+      <c r="D116" s="0" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C117" s="0" t="s">
+      <c r="D117" s="0" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C118" s="0" t="s">
+      <c r="D118" s="0" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C119" s="0" t="s">
+      <c r="D119" s="0" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C120" s="0" t="s">
+      <c r="D120" s="0" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C121" s="0" t="s">
+      <c r="D121" s="0" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C122" s="0" t="s">
+      <c r="D122" s="0" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C123" s="0" t="s">
+      <c r="D123" s="0" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C124" s="0" t="s">
+      <c r="D124" s="0" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C125" s="0" t="s">
+      <c r="D125" s="0" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C126" s="0" t="s">
+      <c r="D126" s="0" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C127" s="0" t="s">
+      <c r="D127" s="0" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C128" s="0" t="s">
+      <c r="D128" s="0" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C129" s="0" t="s">
+      <c r="D129" s="0" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C130" s="0" t="s">
+      <c r="D130" s="0" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C131" s="0" t="s">
+      <c r="D131" s="0" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C132" s="0" t="s">
+      <c r="D132" s="0" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C133" s="0" t="s">
+      <c r="D133" s="0" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C134" s="0" t="s">
+      <c r="D134" s="0" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C135" s="0" t="s">
+      <c r="D135" s="0" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C136" s="0" t="s">
+      <c r="D136" s="0" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C137" s="0" t="s">
+      <c r="D137" s="0" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C138" s="0" t="s">
+      <c r="D138" s="0" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C139" s="0" t="s">
+      <c r="D139" s="0" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B140" s="0" t="s">
+      <c r="D140" s="0" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B141" s="0" t="s">
+      <c r="C141" s="0" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B142" s="0" t="s">
+      <c r="C142" s="0" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B143" s="0" t="s">
+      <c r="C143" s="0" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B144" s="0" t="s">
+      <c r="C144" s="0" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B145" s="0" t="s">
+      <c r="C145" s="0" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B146" s="0" t="s">
+      <c r="C146" s="0" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B147" s="0" t="s">
+      <c r="C147" s="0" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B148" s="0" t="s">
+      <c r="C148" s="0" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B149" s="0" t="s">
+      <c r="C149" s="0" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B150" s="0" t="s">
+      <c r="C150" s="0" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B151" s="0" t="s">
+      <c r="C151" s="0" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B152" s="0" t="s">
+      <c r="C152" s="0" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B153" s="0" t="s">
+      <c r="C153" s="0" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B154" s="0" t="s">
+      <c r="C154" s="0" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B155" s="0" t="s">
+      <c r="C155" s="0" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B156" s="0" t="s">
+      <c r="C156" s="0" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B157" s="0" t="s">
+      <c r="C157" s="0" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="0" t="s">
+      <c r="C158" s="0" t="s">
         <v>157</v>
       </c>
     </row>
@@ -1660,22 +1663,22 @@
       </c>
     </row>
     <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B160" s="0" t="s">
+      <c r="C160" s="0" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B161" s="0" t="s">
+      <c r="C161" s="0" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B162" s="0" t="s">
+      <c r="C162" s="0" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B163" s="0" t="s">
+      <c r="C163" s="0" t="s">
         <v>162</v>
       </c>
     </row>
@@ -1685,182 +1688,182 @@
       </c>
     </row>
     <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C165" s="0" t="s">
+      <c r="D165" s="0" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C166" s="0" t="s">
+      <c r="D166" s="0" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C167" s="0" t="s">
+      <c r="D167" s="0" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C168" s="0" t="s">
+      <c r="D168" s="0" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C169" s="0" t="s">
+      <c r="D169" s="0" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C170" s="0" t="s">
+      <c r="D170" s="0" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C171" s="0" t="s">
+      <c r="D171" s="0" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C172" s="0" t="s">
+      <c r="D172" s="0" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C173" s="0" t="s">
+      <c r="D173" s="0" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C174" s="0" t="s">
+      <c r="D174" s="0" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C175" s="0" t="s">
+      <c r="D175" s="0" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C176" s="0" t="s">
+      <c r="D176" s="0" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C177" s="0" t="s">
+      <c r="D177" s="0" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C178" s="0" t="s">
+      <c r="D178" s="0" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C179" s="0" t="s">
+      <c r="D179" s="0" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C180" s="0" t="s">
+      <c r="D180" s="0" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C181" s="0" t="s">
+      <c r="D181" s="0" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C182" s="0" t="s">
+      <c r="D182" s="0" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C183" s="0" t="s">
+      <c r="D183" s="0" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C184" s="0" t="s">
+      <c r="D184" s="0" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C185" s="0" t="s">
+      <c r="D185" s="0" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C186" s="0" t="s">
+      <c r="D186" s="0" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C187" s="0" t="s">
+      <c r="D187" s="0" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C188" s="0" t="s">
+      <c r="D188" s="0" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C189" s="0" t="s">
+      <c r="D189" s="0" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C190" s="0" t="s">
+      <c r="D190" s="0" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C191" s="0" t="s">
+      <c r="D191" s="0" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C192" s="0" t="s">
+      <c r="D192" s="0" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C193" s="0" t="s">
+      <c r="D193" s="0" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C194" s="0" t="s">
+      <c r="D194" s="0" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C195" s="0" t="s">
+      <c r="D195" s="0" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C196" s="0" t="s">
+      <c r="D196" s="0" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C197" s="0" t="s">
+      <c r="D197" s="0" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C198" s="0" t="s">
+      <c r="D198" s="0" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C199" s="0" t="s">
+      <c r="D199" s="0" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="0" t="s">
+      <c r="D200" s="0" t="s">
         <v>199</v>
       </c>
     </row>
@@ -1870,22 +1873,22 @@
       </c>
     </row>
     <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B202" s="0" t="s">
+      <c r="C202" s="0" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B203" s="0" t="s">
-        <v>148</v>
+      <c r="C203" s="0" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B204" s="0" t="s">
-        <v>202</v>
+      <c r="C204" s="0" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B205" s="0" t="s">
+      <c r="C205" s="0" t="s">
         <v>203</v>
       </c>
     </row>
@@ -1895,77 +1898,77 @@
       </c>
     </row>
     <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C207" s="0" t="s">
+      <c r="D207" s="0" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C208" s="0" t="s">
+      <c r="D208" s="0" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C209" s="0" t="s">
+      <c r="D209" s="0" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C210" s="0" t="s">
+      <c r="D210" s="0" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C211" s="0" t="s">
+      <c r="D211" s="0" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C212" s="0" t="s">
+      <c r="D212" s="0" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C213" s="0" t="s">
+      <c r="D213" s="0" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B214" s="0" t="s">
+      <c r="D214" s="0" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B215" s="0" t="s">
+      <c r="C215" s="0" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B216" s="0" t="s">
-        <v>139</v>
+      <c r="C216" s="0" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B217" s="0" t="s">
-        <v>214</v>
+      <c r="C217" s="0" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B218" s="0" t="s">
+      <c r="C218" s="0" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B219" s="0" t="s">
+      <c r="C219" s="0" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B220" s="0" t="s">
+      <c r="C220" s="0" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="0" t="s">
+      <c r="C221" s="0" t="s">
         <v>218</v>
       </c>
     </row>
@@ -1975,12 +1978,12 @@
       </c>
     </row>
     <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B223" s="0" t="s">
+      <c r="C223" s="0" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="0" t="s">
+      <c r="C224" s="0" t="s">
         <v>221</v>
       </c>
     </row>
@@ -1990,17 +1993,17 @@
       </c>
     </row>
     <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B226" s="0" t="s">
+      <c r="C226" s="0" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B227" s="0" t="s">
+      <c r="C227" s="0" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="0" t="s">
+      <c r="C228" s="0" t="s">
         <v>225</v>
       </c>
     </row>
@@ -2010,67 +2013,67 @@
       </c>
     </row>
     <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B230" s="0" t="s">
+      <c r="C230" s="0" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B231" s="0" t="s">
+      <c r="C231" s="0" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B232" s="0" t="s">
+      <c r="C232" s="0" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B233" s="0" t="s">
+      <c r="C233" s="0" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B234" s="0" t="s">
+      <c r="C234" s="0" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B235" s="0" t="s">
+      <c r="C235" s="0" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B236" s="0" t="s">
+      <c r="C236" s="0" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B237" s="0" t="s">
+      <c r="C237" s="0" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B238" s="0" t="s">
+      <c r="C238" s="0" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B239" s="0" t="s">
+      <c r="C239" s="0" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B240" s="0" t="s">
+      <c r="C240" s="0" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B241" s="0" t="s">
+      <c r="C241" s="0" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="0" t="s">
+      <c r="C242" s="0" t="s">
         <v>239</v>
       </c>
     </row>
@@ -2080,23 +2083,28 @@
       </c>
     </row>
     <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B244" s="0" t="s">
+      <c r="C244" s="0" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B245" s="0" t="s">
+      <c r="C245" s="0" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B246" s="0" t="s">
+      <c r="C246" s="0" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B247" s="0" t="s">
+      <c r="C247" s="0" t="s">
         <v>244</v>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C248" s="0" t="s">
+        <v>245</v>
       </c>
     </row>
   </sheetData>
